--- a/publipostage/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,28 +493,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00213486</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Weekly Cisplatin/Irinotecan and Radiotherapy in Patients With Locally Advanced Esophageal Cancer: Phase II Trial</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -521,28 +531,33 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>NCT00120588</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Effect of Magnesium Sulfate on the Incidence of Periventricular Leukomalacia in the Very Preterm Neonate</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -554,28 +569,33 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>NCT00213434</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2006</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Prospective Evaluation of Mandibular Advancement by Herbst Device in the Treatment of Moderate Obstructive Sleep Apnea Syndrome</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
@@ -587,32 +607,33 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NCT00213499</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>NCT00234234</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Randomized Prospective Multicenter Study of Non Invasive Ventilation Assessment for Weaning From Mechanical Ventilation in Patients With Chronic Respiratory Failure. NIV and Weaning (VENISE)Trial.</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VENISE</t>
-        </is>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
+          <t>Predictors of the Response to Adalimumab in Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -624,28 +645,37 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NCT00234234</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>NCT00213499</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Predictors of the Response to Adalimumab in Rheumatoid Arthritis</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="b">
-        <v>0</v>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Randomized Prospective Multicenter Study of Non Invasive Ventilation Assessment for Weaning From Mechanical Ventilation in Patients With Chronic Respiratory Failure. NIV and Weaning (VENISE)Trial.</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>VENISE</t>
+        </is>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -657,28 +687,33 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT00213551</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Comparative Effects of Glutamine and Glucose on Intestinal Protein Metabolism in Healthy Humans</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="b">
         <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -690,28 +725,33 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>NCT00213512</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2008</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Traitment of Patients Presenting Pemphigus With Anti CD20 (Mabthera).</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -723,32 +763,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>NCT02170454</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Effect of Pharyngeal Cortical Area Inhibition Induced by rTMS on Swallowing Function in Healthy Subject: Video Fluoroscopic Study.</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>rTMSvideoSS</t>
         </is>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
@@ -760,94 +805,113 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT01345890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT00263900</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Neuromodulation in Post Stroke Dysphagia</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Exploratory Study of the Use of the Quick Diagnostic Test of the Influenza and the Infection With RSV by the Paediatric Emergency Unit and Their Impact on the Assumption of Responsibility of the Suspect Children of a Viral Infection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT00263900</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT00389116</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Exploratory Study of the Use of the Quick Diagnostic Test of the Influenza and the Infection With RSV by the Paediatric Emergency Unit and Their Impact on the Assumption of Responsibility of the Suspect Children of a Viral Infection</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Value of CT-Scan and Oral Gastrografin in the Management of Post Operative Small Bowel Obstruction</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT00389116</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT00977223</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Value of CT-Scan and Oral Gastrografin in the Management of Post Operative Small Bowel Obstruction</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="b">
-        <v>0</v>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pilot Study of the Action of the Substance P Antagonist Aprepitant on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>APHOS</t>
+        </is>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -859,32 +923,33 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT00213629</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT01345890</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Transcriptome Analysis Through a Dedicated Macro-array and TcLandscape Repertoire Analysis for Diagnosis of Myositis.</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MYOARRAY</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+          <t>Neuromodulation in Post Stroke Dysphagia</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -896,33 +961,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT00977223</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT00213629</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Pilot Study of the Action of the Substance P Antagonist Aprepitant on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>APHOS</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
+          <t>Transcriptome Analysis Through a Dedicated Macro-array and TcLandscape Repertoire Analysis for Diagnosis of Myositis.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>MYOARRAY</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -933,28 +1003,33 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>NCT00213616</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Bilateral Laryngeal Paralysis Reinnervation. Speech and Ventilatory Results Analysis</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -966,32 +1041,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT00977652</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT01016925</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>TENSIA</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Bacterial Colonization After Tunneling in Femoral Perineural Catheters</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tunnelized KT</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1003,32 +1083,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT00877578</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT00977652</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Efficacy of a Special Oral Nutritional Supplement on Nutritional Status of Malnourished Elderly Patients</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nutri-PA</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Short Term Efficacy of Percutaneous Tibial Nerve Stimulation for the Treatment of Fecal Incontinence:Randomized Controlled Study</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>TENSIA</t>
+        </is>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
       <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1040,32 +1125,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NCT01016925</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>NCT01081444</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Bacterial Colonization After Tunneling in Femoral Perineural Catheters</t>
-        </is>
-      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tunnelized KT</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
+          <t>Effect of Pharyngeal Inhibition Induced by Repetitive Transcranial Stimulation in Post Stroke Dysphagia</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>rTMS AVC</t>
+        </is>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1077,32 +1167,37 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT01081444</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT00877578</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Effect of Pharyngeal Inhibition Induced by Repetitive Transcranial Stimulation in Post Stroke Dysphagia</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>rTMS AVC</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Efficacy of a Special Oral Nutritional Supplement on Nutritional Status of Malnourished Elderly Patients</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Nutri-PA</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1114,28 +1209,33 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>NCT00620724</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Maintenance Oral Nifedipine for Management of Symptomatic Placenta Previa : A Randomized Clinical Trial</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1147,32 +1247,37 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT01029275</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT01299857</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SAPORO</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>EVALUATION CLINIQUE ET BIOLOGIQUE A LONG TERME DES PATIENTS ATTEINTS DE FORMES SEVERES DE PEMPHIGUS TRAITES PAR LE RITUXIMAB</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Suiviritux</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
       <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1184,33 +1289,38 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT01081457</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>NCT01565577</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Effect of Deep Brain Stimulation on Voluntary and Involuntary Gastrointestinal Motility in Parkinson's Disease</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SCP-Comodig</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
+          <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Exten MenbVac</t>
+        </is>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
       <c r="I22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1221,32 +1331,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NCT01299857</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>NCT01029275</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>EVALUATION CLINIQUE ET BIOLOGIQUE A LONG TERME DES PATIENTS ATTEINTS DE FORMES SEVERES DE PEMPHIGUS TRAITES PAR LE RITUXIMAB</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Suiviritux</t>
-        </is>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
+          <t>Multicenter, Randomised Open Trial Comparing the Efficacy of a Medical Treatment With Sandostatin LP 30 mg Performed Before Surgery to a Prime Line transsphenoïdal Surgery in Previously Untreated Acromegalic Patients With Either a Micro or a Macro Pituitary Adenoma</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>SAPORO</t>
+        </is>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1258,70 +1373,76 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT01565577</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT01081457</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Phase 3, Vaccinal Activity Assessment of MenBVac Against Nesseiria Menigitidis B:14,P1.7,16 Strain in Child Vaccinated With MenBVac®</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Exten MenbVac</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Effect of Deep Brain Stimulation on Voluntary and Involuntary Gastrointestinal Motility in Parkinson's Disease</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>SCP-Comodig</t>
+        </is>
       </c>
       <c r="H24" t="b">
         <v>0</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NCT00525616</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NCT02320916</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Assessment of Rituximab Efficiency and Tolerance in Treatment of Bullous Pemphigoid.</t>
-        </is>
-      </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rituximab2</t>
-        </is>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
+          <t>A Randomized Controlled Trial on the Effect of Needle Gauge on the Pain and Anxiety Experienced During Arterial Puncture</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1332,32 +1453,33 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NCT01304576</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>NCT01103206</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Orientation Agnosia: Neuropsychological Evaluation, Associated Symptoms, Clinical and Anatomical Correlations</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>AGNORIENT</t>
-        </is>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
+          <t>Evaluation of a Parathyroid Hormone Suppression Test With Cinacalcet. Comparison: 1- With the Results of the Intravenous Calcium Suppression Test in Healthy Controls; 2- Between Healthy Controls and Patients With Primary Hyperparathyroidism.</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="b">
         <v>0</v>
       </c>
       <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1369,66 +1491,80 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT02110329</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT00525616</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Simultaneous Detection of Somatic Quantitative Molecular Alterations Using the Qantitative Multiplex Pcr of Short Fluorescent Fragments Method (QMPSF) in Stage II-III Colon Cancer: a Prospective Study</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Code Barre</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
+          <t>Assessment of Rituximab Efficiency and Tolerance in Treatment of Bullous Pemphigoid.</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Rituximab2</t>
+        </is>
       </c>
       <c r="H27" t="b">
         <v>0</v>
       </c>
       <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NCT02320916</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NCT02110329</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>A Randomized Controlled Trial on the Effect of Needle Gauge on the Pain and Anxiety Experienced During Arterial Puncture</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="b">
-        <v>0</v>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Simultaneous Detection of Somatic Quantitative Molecular Alterations Using the Qantitative Multiplex Pcr of Short Fluorescent Fragments Method (QMPSF) in Stage II-III Colon Cancer: a Prospective Study</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Code Barre</t>
+        </is>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1439,28 +1575,37 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT01103206</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT01304576</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Evaluation of a Parathyroid Hormone Suppression Test With Cinacalcet. Comparison: 1- With the Results of the Intravenous Calcium Suppression Test in Healthy Controls; 2- Between Healthy Controls and Patients With Primary Hyperparathyroidism.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="b">
-        <v>0</v>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Orientation Agnosia: Neuropsychological Evaluation, Associated Symptoms, Clinical and Anatomical Correlations</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>AGNORIENT</t>
+        </is>
       </c>
       <c r="H29" t="b">
         <v>0</v>
       </c>
       <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1472,32 +1617,33 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NCT00692393</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NCT01801605</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
-        </is>
-      </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DIVERTI</t>
-        </is>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
+          <t>Does Repetitive Transcranial Magnetic Stimulation (rTMS) Reduce Rectal Hypersensitivity in Patients With IBS ?</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1509,32 +1655,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NCT01220388</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
+          <t>2006-005576-40</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
-        </is>
-      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>L-Lysine</t>
-        </is>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
+          <t>Etude de faisabilité de 2 phases II parallèles pré et post-gastrectomie : étude de faisabilité d'un traitement de chimiothérapie et radiothérapie pré-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu) et étude de faisabilité d'un traitement de chimiothérapie et radiothérapie post-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TRACE</t>
+        </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1546,33 +1697,38 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT02171377</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT01350297</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Reha-Res</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TETRADIA-UNI</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1581,34 +1737,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2006-005576-40</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
+          <t>NCT01057953</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Etude de faisabilité de 2 phases II parallèles pré et post-gastrectomie : étude de faisabilité d'un traitement de chimiothérapie et radiothérapie pré-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu) et étude de faisabilité d'un traitement de chimiothérapie et radiothérapie post-opératoire de l'adénocarcinome gastrique (LV5FU2s + Irinotecan - Radiochimiothérapie + 5FU IV continu)</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TRACE</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Oligogenic Determinism of Colorectal Cancer</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>DOCC</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1620,32 +1781,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT01936597</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT00692393</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Prospective Study of 3 Phone Assistance Strategies to Achieve a Continuous Cardiac Massage During Training in Non-hospital Cardiac Cases.</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TeleMacc</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Primary vs. Secondary Anastomosis After Sigmoid Colon Resection for Perforated Diverticulitis (Hinchey Stage III and IV): a Prospective Multicentric Randomized Trial</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>DIVERTI</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1657,28 +1823,37 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NCT01801605</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NCT01220388</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Does Repetitive Transcranial Magnetic Stimulation (rTMS) Reduce Rectal Hypersensitivity in Patients With IBS ?</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="b">
-        <v>0</v>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Pilot Study of the Action L-lysine on Aldosterone and Cortisol Secretion in Healthy Volunteers.</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>L-Lysine</t>
+        </is>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
       <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1690,33 +1865,38 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NCT01350297</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NCT02171377</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Phrenic Reinnervation in Central Ventilatory Paralysis Due to Medullary Trauma With Phrenic Motoneuron Destruction</t>
-        </is>
-      </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TETRADIA-UNI</t>
-        </is>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
+          <t>Quadricipital Electrical Stimulation in COPD Patients Rehabilitation</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Reha-Res</t>
+        </is>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1727,32 +1907,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NCT01057953</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NCT01936597</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>2013</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Oligogenic Determinism of Colorectal Cancer</t>
-        </is>
-      </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DOCC</t>
-        </is>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
+          <t>Prospective Study of 3 Phone Assistance Strategies to Achieve a Continuous Cardiac Massage During Training in Non-hospital Cardiac Cases.</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TeleMacc</t>
+        </is>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
       <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1764,32 +1949,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NCT02086253</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NCT01765374</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Role of Endothelin-1 in Mediating Flow-mediated Dilatation of Conduit Arteries During Sustained Hyperemic Stimulation</t>
-        </is>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Endothelin</t>
-        </is>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
+          <t>Study of Sonographic Efficacy of Rituximab in Rheumatoid Arthritis</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>SEWORRA</t>
+        </is>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
       <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1801,32 +1991,37 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NCT00811915</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NCT01712581</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
-        </is>
-      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>EPARGNE</t>
-        </is>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
+          <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>HeartMS</t>
+        </is>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
       <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1838,32 +2033,37 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>NCT01566188</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Cardiovascular Impact of Omega-3 Dietary Supplement From Vegetal Origin in Hypertension Associated With Metabolic Syndrome</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>CARDIOMEGA</t>
         </is>
       </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
       <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1875,32 +2075,37 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NCT01765374</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NCT02170506</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Study of Sonographic Efficacy of Rituximab in Rheumatoid Arthritis</t>
-        </is>
-      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>SEWORRA</t>
-        </is>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
+          <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TENSVIRT</t>
+        </is>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
       <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1912,32 +2117,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>NCT01330745</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>Mesenteric Microcirculatory Function Study Through Sublingual Evaluation During Cardiopulmonary Bypass</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>MICROCARD</t>
         </is>
       </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
       <c r="I42" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1949,32 +2159,37 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NCT02170506</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NCT00811915</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Effect of Sub-mental Sensitive Transcutaneous Electrical Stimulation on Pharyngeal Muscles Control</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TENSVIRT</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
+          <t>A Prospective, Comparative, Multicenter, Randomized Study to Compare the Safety and Efficacy of Sirolimus (Rapamune) to Tacrolimus (Advagraf) Associated to Mycophenolate Mofetil (CellCept) Between 12 and 36 Months After Kidney Transplantation</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>EPARGNE</t>
+        </is>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
       <c r="I43" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1986,32 +2201,37 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NCT01712581</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NCT02086253</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Determination of Myocardial Relaxation Times Values in Healthy Volunters</t>
-        </is>
-      </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>HeartMS</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
+          <t>Role of Endothelin-1 in Mediating Flow-mediated Dilatation of Conduit Arteries During Sustained Hyperemic Stimulation</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Endothelin</t>
+        </is>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
       <c r="I44" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2023,32 +2243,37 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NCT01426659</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NCT02570464</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Evaluation of Language and Sensorimotor Constraints of Very Premature Babies at the Age of 3 Years 1 / 2 Without Cerebral Palsy. Randomised Study of Stimulation Training Implicit in Children Vulnerable</t>
-        </is>
-      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LAMOPRESCO</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
+          <t>Aortic Cross-Clamping and Systemic Inflammatory Response in Humans: Effect of Ischemic Preconditioning</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>CLARIS</t>
+        </is>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
       <c r="I45" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2060,33 +2285,38 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>NCT00903799</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NCT01326416</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ENTERRA</t>
-        </is>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
+          <t>Evaluation of the Impact of Physical Reconditioning Associated With Specific Nutritional Supplementation in Obese Patients Suffering From Metabolic Syndrome. OBEFITT Study.</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>OBEFITT</t>
+        </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2097,70 +2327,72 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NCT01326416</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NCT01275560</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Evaluation of the Impact of Physical Reconditioning Associated With Specific Nutritional Supplementation in Obese Patients Suffering From Metabolic Syndrome. OBEFITT Study.</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>OBEFITT</t>
-        </is>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="b">
         <v>0</v>
       </c>
       <c r="I47" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>NCT01686347</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NCT01523522</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Epidural Analgesia and Troubles of Fetal Cardiaq Rythm : Effect of the Systemic Transfer of Ropivacaine and Sufentanil</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>epidarc</t>
-        </is>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
+          <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>MIAS</t>
+        </is>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2171,32 +2403,37 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NCT02231827</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NCT01686347</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>A Study of the Balance Control During Gait : Comparison of Data Acquisition Between Force Plate and 3D Optoelectronic Gait Analysis System</t>
-        </is>
-      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>FREINAGE3D</t>
-        </is>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
+          <t>Epidural Analgesia and Troubles of Fetal Cardiaq Rythm : Effect of the Systemic Transfer of Ropivacaine and Sufentanil</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>epidarc</t>
+        </is>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
       <c r="I49" t="b">
+        <v>0</v>
+      </c>
+      <c r="J49" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2208,32 +2445,37 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>NCT02556320</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NCT01426659</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>VIRIDAE</t>
-        </is>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
+          <t>Evaluation of Language and Sensorimotor Constraints of Very Premature Babies at the Age of 3 Years 1 / 2 Without Cerebral Palsy. Randomised Study of Stimulation Training Implicit in Children Vulnerable</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>LAMOPRESCO</t>
+        </is>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
       <c r="I50" t="b">
+        <v>0</v>
+      </c>
+      <c r="J50" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2245,99 +2487,122 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NCT01275560</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>NCT00903799</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="b">
-        <v>0</v>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Clinical Efficacy and Efficiency of Gastric Electrical Stimulation (Enterra®) for Refractory Nausea and/or Vomiting</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ENTERRA</t>
+        </is>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NCT02570464</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>NCT01707732</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Aortic Cross-Clamping and Systemic Inflammatory Response in Humans: Effect of Ischemic Preconditioning</t>
-        </is>
-      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>CLARIS</t>
-        </is>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
+          <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ITOHENOX</t>
+        </is>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
       <c r="I52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>NCT01707732</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>NCT02029859</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Adjusted Value of Thromboprophylaxis in Hospitalized Obese Patients: A Comparative Study of Two Regimens of Enoxaparin</t>
-        </is>
-      </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>ITOHENOX</t>
-        </is>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
+          <t>Sleep Apnea, Obesity and Pregnancy</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>GOS</t>
+        </is>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J53" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2348,103 +2613,122 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>NCT02029859</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>NCT02556320</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Sleep Apnea, Obesity and Pregnancy</t>
-        </is>
-      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>GOS</t>
-        </is>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
+          <t>Immunological and Viral Parameters in Patients Receiving Anti-epileptic Drugs</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>VIRIDAE</t>
+        </is>
       </c>
       <c r="H54" t="b">
         <v>0</v>
       </c>
       <c r="I54" t="b">
+        <v>0</v>
+      </c>
+      <c r="J54" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NCT01523522</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>NCT02231827</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Etude de l'efficacité et de la sécurité d'Injections Intra-sphinctériennes de Myoblastes Autologues Chez Des Patients Atteints d'Incontinence Anale sévère Par Insuffisance sphinctérienne</t>
-        </is>
-      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MIAS</t>
-        </is>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
+          <t>A Study of the Balance Control During Gait : Comparison of Data Acquisition Between Force Plate and 3D Optoelectronic Gait Analysis System</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>FREINAGE3D</t>
+        </is>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NCT01610973</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>NCT00784589</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="b">
-        <v>0</v>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Comparison Between Monoclonal Antibody CD20 Treatment (Rituximab (mabthéra))and General Corticotherapy Treatment in Patients With Pemphigus</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Rituximab 3</t>
+        </is>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2455,25 +2739,34 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NCT01638845</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>NCT01352910</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="b">
-        <v>0</v>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>PARALYSTIM</t>
+        </is>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J57" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2484,32 +2777,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NCT02001649</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>NCT02555566</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
-        </is>
-      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VGTSA</t>
-        </is>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
+          <t>Role of Epoxyeicosatrienoic Acids in Chronic Allograft Nephropathy</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>TRANSPLANTEETs</t>
+        </is>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
       <c r="I58" t="b">
+        <v>0</v>
+      </c>
+      <c r="J58" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2521,32 +2819,37 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>NCT01594463</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>NCT01931579</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Third Trimester Routine Ultrasound in Low-risk Pregnancies : Comparison of Two Timing Periods Procedure for Screening Intrauterine Growth Restriction</t>
-        </is>
-      </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>RECRET</t>
-        </is>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
+          <t>Assessment of Probe Based Confocal Laser Endo-microscopy for In-vivo Diagnosis of Peripheral Lung Nodules and Masses. "NODIVEM" Study</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NODIVEM</t>
+        </is>
       </c>
       <c r="H59" t="b">
         <v>0</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+      <c r="J59" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2558,70 +2861,80 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>NCT02272166</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>NCT01588288</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
-        </is>
-      </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Propo-Faim</t>
-        </is>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
+          <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Galectins</t>
+        </is>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J60" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NCT00784589</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>NCT01594463</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr"/>
+      <c r="E61" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Comparison Between Monoclonal Antibody CD20 Treatment (Rituximab (mabthéra))and General Corticotherapy Treatment in Patients With Pemphigus</t>
-        </is>
-      </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Rituximab 3</t>
-        </is>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
+          <t>Third Trimester Routine Ultrasound in Low-risk Pregnancies : Comparison of Two Timing Periods Procedure for Screening Intrauterine Growth Restriction</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>RECRET</t>
+        </is>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J61" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2630,72 +2943,82 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>2009-009155-37</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Evaluation of the impact of physical reconditioning associated with specific nutritional supplementation in obese patients suffering of metabolic syndrome.</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>OBEFITT</t>
         </is>
       </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
       <c r="I62" t="b">
+        <v>0</v>
+      </c>
+      <c r="J62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NCT02295514</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>NCT02001649</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Correlation Between PTP1B Expression and Organ Failure During Sepsis</t>
-        </is>
-      </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>SEPP1B</t>
-        </is>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
+          <t>Genetic Variants Associated With Adolescent Suicide Attempts: a Candidate-gene Association Study.</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>VGTSA</t>
+        </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J63" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2706,32 +3029,37 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>NCT02557061</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr">
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>Prognostic Value of the Lymphocytic Infiltrate in Colon Cancers</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>TIL</t>
         </is>
       </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
       <c r="H64" t="b">
         <v>0</v>
       </c>
       <c r="I64" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2743,69 +3071,71 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NCT01212510</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>NCT01638845</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Coca-Colon</t>
-        </is>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="b">
         <v>0</v>
       </c>
       <c r="I65" t="b">
+        <v>0</v>
+      </c>
+      <c r="J65" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NCT02311075</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>NCT02272166</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
-        </is>
-      </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DIAB-EETs</t>
-        </is>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
+          <t>Effects of Propofol on Early Recovery of Hunger After Ambulatory Surgery Compared With Sevoflurane</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Propo-Faim</t>
+        </is>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="b">
+        <v>0</v>
+      </c>
+      <c r="J66" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2817,107 +3147,122 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NCT01588288</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>NCT01212510</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Diagnosis Interest of Galectin 3 Dosage in Nodular and Multinodular Goiter Pretreatment</t>
-        </is>
-      </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Galectins</t>
-        </is>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
+          <t>Study of Circulating Markers in Serum of Patients Treated for Metastatic Colorectal Cancer</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Coca-Colon</t>
+        </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
+      </c>
+      <c r="J67" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>NCT02555566</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>NCT02311075</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Role of Epoxyeicosatrienoic Acids in Chronic Allograft Nephropathy</t>
-        </is>
-      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TRANSPLANTEETs</t>
-        </is>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
+          <t>Determination of the Mechanisms Involved in Conduit Artery Endothelial Dysfunction in Type 2 Diabetes</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>DIAB-EETs</t>
+        </is>
       </c>
       <c r="H68" t="b">
         <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J68" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NCT01931579</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
-      <c r="D69" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>NCT02295514</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Assessment of Probe Based Confocal Laser Endo-microscopy for In-vivo Diagnosis of Peripheral Lung Nodules and Masses. "NODIVEM" Study</t>
-        </is>
-      </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NODIVEM</t>
-        </is>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
+          <t>Correlation Between PTP1B Expression and Organ Failure During Sepsis</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>SEPP1B</t>
+        </is>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2928,28 +3273,33 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NCT01352910</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
-      <c r="D70" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>NCT01610973</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>PARALYSTIM</t>
-        </is>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
+          <t>Comparison of Manual and Automated Techniques in Achieving Posterior Lamellar Transplantation of the Cornea</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
       <c r="H70" t="b">
         <v>0</v>
       </c>
       <c r="I70" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2961,62 +3311,80 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NCT02664389</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>NCT02004860</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
-        </is>
-      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>PANEL</t>
-        </is>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
+          <t>Phase 3 : Tacrolimus Ointment Interest (PROTOPIC ®) in the Maintenance Treatment of Severe Seborrheic Dermatitis on Adult Face</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Disease</t>
+        </is>
       </c>
       <c r="H71" t="b">
         <v>0</v>
       </c>
       <c r="I71" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NCT02594722</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>NCT02664389</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="b">
-        <v>1</v>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Targeted Next-generation Sequencing Panel for Identification of Germline Mutations in Early Onset Cancers With Sporadic or Hereditary Presentation</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>PANEL</t>
+        </is>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J72" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3027,26 +3395,31 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NCT02920684</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>NCT02594722</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="b">
         <v>1</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
       </c>
+      <c r="J73" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3056,32 +3429,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>NCT02037191</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>RANDOMIZED DOUBLE-BLIND STUDY MULTICENTRIQUE TESTING THE EFFICIENCY OF the METHOTREXATE AT PATIENTS AFFECTED BY GRAVE PELADE (METHOTREXATE VERSUS PLACEBO WITH SECONDARY TREATMENT BY METHOTREXATE and PREDNISONE)</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>MP3</t>
         </is>
       </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
       <c r="I74" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3093,70 +3471,72 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>NCT02004860</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>NCT01340001</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>Phase 3 : Tacrolimus Ointment Interest (PROTOPIC ®) in the Maintenance Treatment of Severe Seborrheic Dermatitis on Adult Face</t>
-        </is>
-      </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Disease</t>
-        </is>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
+          <t>Effects of Nucleus Basalis of Meynert Area Electrical Stimulation on Cognitive Behavioral Disorders in Dementia With Lewy Bodies : A Pilot Phase 1 Study</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>DEMENSTIM</t>
+        </is>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
       <c r="I75" t="b">
         <v>0</v>
+      </c>
+      <c r="J75" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NCT02353702</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>NCT02920684</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Efficacy of Parietal Continuous Infiltration of Local Anesthesic on Diaphragmatic Function After Upper Abdominal Surgery Through a Subcostal Incision</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>CATPAR</t>
-        </is>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J76" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -3167,32 +3547,37 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NCT01690585</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>NCT02988570</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Efficacy of Parenteral Iron Supplementation After Gastrointestinal Bleeding in Subjects Over 65</t>
-        </is>
-      </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>FerHem</t>
-        </is>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
+          <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>EPILANG2</t>
+        </is>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
       <c r="I77" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3204,33 +3589,38 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NCT01340001</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>NCT01690585</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>Effects of Nucleus Basalis of Meynert Area Electrical Stimulation on Cognitive Behavioral Disorders in Dementia With Lewy Bodies : A Pilot Phase 1 Study</t>
-        </is>
-      </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DEMENSTIM</t>
-        </is>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
+          <t>Efficacy of Parenteral Iron Supplementation After Gastrointestinal Bleeding in Subjects Over 65</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>FerHem</t>
+        </is>
       </c>
       <c r="H78" t="b">
         <v>0</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J78" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3241,32 +3631,37 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NCT02988570</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>NCT02353702</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Study on the Phenotype of Language in Preterm Born Children at 5 Years of Age</t>
-        </is>
-      </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>EPILANG2</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
+          <t>Efficacy of Parietal Continuous Infiltration of Local Anesthesic on Diaphragmatic Function After Upper Abdominal Surgery Through a Subcostal Incision</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>CATPAR</t>
+        </is>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
       <c r="I79" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3278,33 +3673,38 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NCT01975753</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>NCT02170467</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
-        </is>
-      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>AEROMORPH1</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
+          <t>Study of Intestinal Permeability in Patients With Anorexia Nervosa</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>PIANO</t>
+        </is>
       </c>
       <c r="H80" t="b">
         <v>0</v>
       </c>
       <c r="I80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J80" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3315,32 +3715,37 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NCT02170467</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>NCT03750058</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Study of Intestinal Permeability in Patients With Anorexia Nervosa</t>
-        </is>
-      </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>PIANO</t>
-        </is>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
+          <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>AXONE-Acute</t>
+        </is>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
       <c r="I81" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3352,32 +3757,37 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>NCT02021253</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>NCT01975753</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
-        </is>
-      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>LIPROCES</t>
-        </is>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
+          <t>First Evaluation of Morphine Hydrochloride by Nebulisation Compared to Intravenous Route in Healthy Volunteers: Preliminary Study Dose</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>AEROMORPH1</t>
+        </is>
       </c>
       <c r="H82" t="b">
         <v>0</v>
       </c>
       <c r="I82" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3389,33 +3799,38 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>NCT01960270</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>NCT03614806</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>Secondary Bilateral or Controlateral Sacral Nerve Stimulation in Overactive Bladder Patients With Unilateral Stimulation Failure - Multicenter Study</t>
-        </is>
-      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>NEUROBIL</t>
-        </is>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
+          <t>Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring Vs End-tidal Partial Pressure Carbon Dioxide (PetCO2) Measurement in the Diagnosis of Hyperventilation Syndrome (HVS) (TCvsPETCO2 )</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>TCvsPETCO2</t>
+        </is>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J83" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3426,32 +3841,37 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>NCT01521988</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Prevention of Atrial Fibrillation by Combined Right Isthmus Ablation and cryoBalloon Pulmonary Vein Isolation in Patients With Typical Atrial Flutter</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>PAF CRIOBLAF</t>
         </is>
       </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
       <c r="I84" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3463,32 +3883,37 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NCT03614806</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>NCT02295488</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Transcutaneous Carbon Dioxide Pressure (tcPCO2) Monitoring Vs End-tidal Partial Pressure Carbon Dioxide (PetCO2) Measurement in the Diagnosis of Hyperventilation Syndrome (HVS) (TCvsPETCO2 )</t>
-        </is>
-      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>TCvsPETCO2</t>
-        </is>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
+          <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>MAISAVEN</t>
+        </is>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
       <c r="I85" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3500,33 +3925,38 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NCT02295488</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>NCT02021253</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Determinism of the Mechanism of Action of Specific Immunotherapy in Hymenoptera Venom Allergy</t>
-        </is>
-      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>MAISAVEN</t>
-        </is>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
+          <t>Circulating Endotoxemia After Liver Resection for Hepatocellular Carcinoma in Liver Disease - Influence of Preoperative Administration of Probiotics</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>LIPROCES</t>
+        </is>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
+      </c>
+      <c r="J86" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3537,33 +3967,38 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NCT03750058</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>NCT01960270</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>AXONE -Acute : Acute Assessment of a Micro Multipolar Lead for Enhanced Cardiac Resynchronisation Therapy</t>
-        </is>
-      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>AXONE-Acute</t>
-        </is>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
+          <t>Secondary Bilateral or Controlateral Sacral Nerve Stimulation in Overactive Bladder Patients With Unilateral Stimulation Failure - Multicenter Study</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NEUROBIL</t>
+        </is>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
+      </c>
+      <c r="J87" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3574,32 +4009,37 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NCT01966640</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>NCT02370771</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Basophil Activation Test (BAT) Sensitivity in Child Food Allergy</t>
-        </is>
-      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>TAB-TPO</t>
-        </is>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
+          <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>PASEO</t>
+        </is>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
       <c r="I88" t="b">
+        <v>0</v>
+      </c>
+      <c r="J88" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3609,110 +4049,125 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr"/>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>NCT01994499</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>VIDMED</t>
+        </is>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>NCT01966640</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Basophil Activation Test (BAT) Sensitivity in Child Food Allergy</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>TAB-TPO</t>
+        </is>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>2015-002060-17</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>Effect of pharmacological heart rate reduction on visco-elastic properties of the arterial wall - Impact of aging 
  Effet de la réduction pharmacologique de la fréquence cardiaque (FC) sur les propriétés viscoélastiques de la paroi artérielle – impact du vieillissement</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>BRADY-VASC 
  BRADY-VASC</t>
         </is>
       </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>NCT02370771</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Proteomic Analysis in Sera From Patients With Erosive Hand Osteoarthritis</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>PASEO</t>
-        </is>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>NCT01994499</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Randomized Study Comparing Pleural Drainage by Videothoracoscopy to Medical Drainage in Infectious Pleural Effusion</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>VIDMED</t>
-        </is>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
       <c r="I91" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3724,32 +4179,37 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>NCT03852862</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr"/>
-      <c r="D92" t="inlineStr">
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>Double Regional Anesthesia in Video Assisted Thoracoscopy</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>DRAVATS</t>
         </is>
       </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
       <c r="I92" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3759,34 +4219,39 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr"/>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2015-001501-14</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
+          <t>NCT04367662</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Pilot study of aprepitant effect on aldosterone secretion in diabetic patient (diabetes mellitus) with hypertension associated with low renin</t>
-        </is>
-      </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>APHOS-02</t>
-        </is>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
+          <t>Study of the Vascular Compartment and Hypercoagulability During Coronavirus Infection COVID-19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>COVID'HEMOS</t>
+        </is>
       </c>
       <c r="H93" t="b">
         <v>0</v>
       </c>
       <c r="I93" t="b">
+        <v>0</v>
+      </c>
+      <c r="J93" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3798,32 +4263,37 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NCT03536403</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
+          <t>2015-001501-14</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Study of Spino-pelvic Sagittal Balance by Vicon® Optoelectronic System - Model of Non-invasive Kyphosis</t>
-        </is>
-      </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>VICON-SPINE</t>
-        </is>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
+          <t>Pilot study of aprepitant effect on aldosterone secretion in diabetic patient (diabetes mellitus) with hypertension associated with low renin</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>APHOS-02</t>
+        </is>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
       <c r="I94" t="b">
+        <v>0</v>
+      </c>
+      <c r="J94" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3835,32 +4305,37 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>NCT04367662</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
-      <c r="D95" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>NCT04367545</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Study of the Vascular Compartment and Hypercoagulability During Coronavirus Infection COVID-19</t>
-        </is>
-      </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>COVID'HEMOS</t>
-        </is>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
+          <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>MolCOVID</t>
+        </is>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
       <c r="I95" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3872,32 +4347,37 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NCT04367545</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>NCT03536403</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Development of a Molecular Diagnostic Strategy for SARS-CoV2 Based on Saliva in the Context of the COVID-19 Pandemic</t>
-        </is>
-      </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MolCOVID</t>
-        </is>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
+          <t>Study of Spino-pelvic Sagittal Balance by Vicon® Optoelectronic System - Model of Non-invasive Kyphosis</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>VICON-SPINE</t>
+        </is>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
       <c r="I96" t="b">
+        <v>0</v>
+      </c>
+      <c r="J96" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3909,32 +4389,37 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCT02550704</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
-      <c r="D97" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>NCT02877654</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Association Between High Faecal Calprotectin, Increased Intestinal Permeability and Visceral Hypersensitivity in Patients Suffering From Irritable Bowel Syndrome With Diarrhoea</t>
-        </is>
-      </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SIIMPA</t>
-        </is>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
+          <t>Assessment of Intestinal Barrier in Irritable Bowel Syndrome Patients : Is There Any Correlation Between Plasmatic Zonulin and Expression of Intestinal Tight Junction Proteins ?</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>BISII</t>
+        </is>
       </c>
       <c r="H97" t="b">
         <v>0</v>
       </c>
       <c r="I97" t="b">
+        <v>0</v>
+      </c>
+      <c r="J97" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3946,32 +4431,37 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NCT02877654</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>NCT02550704</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Assessment of Intestinal Barrier in Irritable Bowel Syndrome Patients : Is There Any Correlation Between Plasmatic Zonulin and Expression of Intestinal Tight Junction Proteins ?</t>
-        </is>
-      </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>BISII</t>
-        </is>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
+          <t>Association Between High Faecal Calprotectin, Increased Intestinal Permeability and Visceral Hypersensitivity in Patients Suffering From Irritable Bowel Syndrome With Diarrhoea</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>SIIMPA</t>
+        </is>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
       <c r="I98" t="b">
+        <v>0</v>
+      </c>
+      <c r="J98" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3983,32 +4473,37 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NCT04503655</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>NCT05520996</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Etude Multicentrique Évaluant L'efficacité D'une Intervention Visant À Réduire La Durée De Séjour Après L'implantation D'une Bioprothèse Aortique Par Voie Transfémorale</t>
-        </is>
-      </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FAST-TAVI II</t>
-        </is>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
+          <t>Impact of Ostracism on Prospective Memory in ADHD Children With or Without Emotional Dysregulation/ Impact de l'Ostracisme Sur la mémoire Prospective Chez Des Enfants Atteint de TDA/H Avec ou Sans dysrégulation émotionnelle.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>IOM-ADHD</t>
+        </is>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
       <c r="I99" t="b">
+        <v>0</v>
+      </c>
+      <c r="J99" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4020,32 +4515,37 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>NCT05520996</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>NCT04503655</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Impact of Ostracism on Prospective Memory in ADHD Children With or Without Emotional Dysregulation/ Impact de l'Ostracisme Sur la mémoire Prospective Chez Des Enfants Atteint de TDA/H Avec ou Sans dysrégulation émotionnelle.</t>
-        </is>
-      </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>IOM-ADHD</t>
-        </is>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
+          <t>Etude Multicentrique Évaluant L'efficacité D'une Intervention Visant À Réduire La Durée De Séjour Après L'implantation D'une Bioprothèse Aortique Par Voie Transfémorale</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>FAST-TAVI II</t>
+        </is>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
       <c r="I100" t="b">
+        <v>0</v>
+      </c>
+      <c r="J100" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4057,32 +4557,37 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>NCT04257318</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="inlineStr">
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>Clitoris Potential Analgesic Function Research by Pregnant Women : Feasibility Study</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>FAC</t>
         </is>
       </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
       <c r="I101" t="b">
+        <v>0</v>
+      </c>
+      <c r="J101" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4094,27 +4599,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>NCT03718312</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>Evaluation of the Effectiveness of Ischemic Pre-conditioning on the Morbidity and Mortality of Open Surgery of Thoracoabdominal Aortic Aneurysms.</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>EPICATA</t>
         </is>
-      </c>
-      <c r="G102" t="b">
-        <v>1</v>
       </c>
       <c r="H102" t="b">
         <v>1</v>
@@ -4122,6 +4629,9 @@
       <c r="I102" t="b">
         <v>1</v>
       </c>
+      <c r="J102" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4129,36 +4639,41 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="inlineStr">
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr"/>
+      <c r="D103" t="inlineStr">
         <is>
           <t>2020-002126-90</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>Opioid-Free Anesthesia in Cardiac Surgery 
  Anesthésie avec/sans opioïdes en chirurgie cardiaque</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>OFACS 
  OFACS</t>
         </is>
       </c>
-      <c r="G103" t="b">
-        <v>0</v>
-      </c>
       <c r="H103" t="b">
         <v>0</v>
       </c>
       <c r="I103" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4170,28 +4685,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NCT00512304</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>NCT00213668</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
-        </is>
-      </c>
+      <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>TRACE</t>
-        </is>
-      </c>
-      <c r="G104" t="b">
-        <v>0</v>
-      </c>
+          <t>Effect of Glutamine on Gastric Emptying and Length of Parenteral Nutrition in Premature Neonates</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
       <c r="H104" t="b">
         <v>0</v>
       </c>
       <c r="I104" t="b">
+        <v>0</v>
+      </c>
+      <c r="J104" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4203,24 +4719,33 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NCT00213668</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>NCT00512304</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Effect of Glutamine on Gastric Emptying and Length of Parenteral Nutrition in Premature Neonates</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="b">
-        <v>0</v>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Feasibility Study of 2 Parallel Phases II Pre or Postgastrectomy in Patients With Gastric Cancer (FOLFIRI-radiotherapy Plus 5 Fluorouracil-surgery or Surgery-FOLFIRI-radiotherapy Plus 5 Fluorouracil)</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>TRACE</t>
+        </is>
       </c>
       <c r="H105" t="b">
         <v>0</v>
       </c>
       <c r="I105" t="b">
+        <v>0</v>
+      </c>
+      <c r="J105" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4230,134 +4755,154 @@
           <t>🟥</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="inlineStr">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2008-003367-40</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Pilot study of the effect of a substance P antagonist, aprepitant, on aldosterone and cortisol secretions in healthy volunteers 
+ ETUDE PILOTE DE L'EFFET D'UN ANTAGONISTE DE LA SUBSTANCE P, L'APREPITANT, SUR LES SECRETIONS D'ALDOSTERONE ET DE CORTISOL CHEZ LE VOLONTAIRE SAIN</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>APHOS</t>
+        </is>
+      </c>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+      <c r="J106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2011-003539-68</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>ETUDE PROSPECTIVE RANDOMISEE COMPARATIVE PREDNISONE/ CYCLOPHOSPHAMIDE VERSUS PREDNISONE/ RITUXIMAB AU COURS DE L'HEMOPHILIE ACQUISE</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>CREHA</t>
+        </is>
+      </c>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+      <c r="J107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
         <is>
           <t>2011-006268-27</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
         <is>
           <t>Evaluation of the Immune Response against Neisseria meningitidis B:14,P1-7,16 in subjects inoculated by MenBVac (R) vaccine. 
  Evaluation de la réponse immunitaire contre la souche de Neisseria Meningitidis B:14,P1.7,16 chez les sujets vaccinés par MenBVac®.</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>MenBVac clinical trial extension 
  Extension de l'étude MenBVac</t>
         </is>
       </c>
-      <c r="G106" t="b">
-        <v>0</v>
-      </c>
-      <c r="H106" t="b">
-        <v>0</v>
-      </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="inlineStr">
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+      <c r="J108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>🟥</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr"/>
+      <c r="D109" t="inlineStr">
         <is>
           <t>2011-006209-83</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
         <is>
           <t>Evaluation of the Immune Response against Neisseria meningitidis B:14, P1-7,16 in subjects inoculated by MenBVac ® vaccine. 
  Evaluation de la réponse Immunitaire contre la souche de Neisseria meningitidis B:14,P1-7,16 chez les sujets amenés à être vaccinés par MenBVac®</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>Effivac clinical trial extension 
  extension de l'étude Effivac</t>
         </is>
       </c>
-      <c r="G107" t="b">
-        <v>0</v>
-      </c>
-      <c r="H107" t="b">
-        <v>0</v>
-      </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>2011-003539-68</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>ETUDE PROSPECTIVE RANDOMISEE COMPARATIVE PREDNISONE/ CYCLOPHOSPHAMIDE VERSUS PREDNISONE/ RITUXIMAB AU COURS DE L'HEMOPHILIE ACQUISE</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>CREHA</t>
-        </is>
-      </c>
-      <c r="G108" t="b">
-        <v>0</v>
-      </c>
-      <c r="H108" t="b">
-        <v>0</v>
-      </c>
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>🟥</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>2008-003367-40</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Pilot study of the effect of a substance P antagonist, aprepitant, on aldosterone and cortisol secretions in healthy volunteers 
- ETUDE PILOTE DE L'EFFET D'UN ANTAGONISTE DE LA SUBSTANCE P, L'APREPITANT, SUR LES SECRETIONS D'ALDOSTERONE ET DE CORTISOL CHEZ LE VOLONTAIRE SAIN</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>APHOS</t>
-        </is>
-      </c>
-      <c r="G109" t="b">
-        <v>0</v>
-      </c>
       <c r="H109" t="b">
         <v>0</v>
       </c>
       <c r="I109" t="b">
+        <v>0</v>
+      </c>
+      <c r="J109" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
+++ b/publipostage/00cxy0s05/liste_essais_cliniques_identifies_00cxy0s05.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +527,11 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -560,6 +570,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -598,6 +613,11 @@
       <c r="J4" t="b">
         <v>0</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -636,6 +656,11 @@
       <c r="J5" t="b">
         <v>1</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -678,6 +703,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -716,6 +746,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +789,11 @@
       <c r="J8" t="b">
         <v>1</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -796,6 +836,11 @@
       <c r="J9" t="b">
         <v>0</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,6 +879,11 @@
       <c r="J10" t="b">
         <v>0</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -872,6 +922,11 @@
       <c r="J11" t="b">
         <v>1</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +969,11 @@
       <c r="J12" t="b">
         <v>1</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -952,6 +1012,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1059,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1032,6 +1102,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1149,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1116,6 +1196,11 @@
       <c r="J17" t="b">
         <v>0</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1158,6 +1243,11 @@
       <c r="J18" t="b">
         <v>0</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1200,6 +1290,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1238,6 +1333,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1280,6 +1380,11 @@
       <c r="J21" t="b">
         <v>0</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1322,6 +1427,11 @@
       <c r="J22" t="b">
         <v>0</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1364,6 +1474,11 @@
       <c r="J23" t="b">
         <v>0</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1406,6 +1521,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1444,6 +1564,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1482,6 +1607,11 @@
       <c r="J26" t="b">
         <v>0</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1524,6 +1654,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1566,6 +1701,11 @@
       <c r="J28" t="b">
         <v>0</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1608,6 +1748,11 @@
       <c r="J29" t="b">
         <v>0</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1646,6 +1791,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1688,6 +1838,7 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1730,6 +1881,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1772,6 +1928,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1814,6 +1975,11 @@
       <c r="J34" t="b">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1856,6 +2022,11 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1898,6 +2069,11 @@
       <c r="J36" t="b">
         <v>1</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1940,6 +2116,11 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1982,6 +2163,11 @@
       <c r="J38" t="b">
         <v>0</v>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2024,6 +2210,11 @@
       <c r="J39" t="b">
         <v>0</v>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2066,6 +2257,11 @@
       <c r="J40" t="b">
         <v>0</v>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2108,6 +2304,11 @@
       <c r="J41" t="b">
         <v>0</v>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2150,6 +2351,11 @@
       <c r="J42" t="b">
         <v>0</v>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2192,6 +2398,11 @@
       <c r="J43" t="b">
         <v>0</v>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2234,6 +2445,11 @@
       <c r="J44" t="b">
         <v>0</v>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2276,6 +2492,11 @@
       <c r="J45" t="b">
         <v>0</v>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2317,6 +2538,11 @@
       </c>
       <c r="J46" t="b">
         <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -2352,6 +2578,11 @@
       <c r="J47" t="b">
         <v>0</v>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2394,6 +2625,11 @@
       <c r="J48" t="b">
         <v>1</v>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2436,6 +2672,11 @@
       <c r="J49" t="b">
         <v>0</v>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2478,6 +2719,11 @@
       <c r="J50" t="b">
         <v>0</v>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2520,6 +2766,11 @@
       <c r="J51" t="b">
         <v>1</v>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2562,6 +2813,11 @@
       <c r="J52" t="b">
         <v>1</v>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2604,6 +2860,11 @@
       <c r="J53" t="b">
         <v>0</v>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2646,6 +2907,11 @@
       <c r="J54" t="b">
         <v>0</v>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2688,6 +2954,11 @@
       <c r="J55" t="b">
         <v>0</v>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2730,6 +3001,11 @@
       <c r="J56" t="b">
         <v>1</v>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2768,6 +3044,11 @@
       <c r="J57" t="b">
         <v>0</v>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2810,6 +3091,11 @@
       <c r="J58" t="b">
         <v>0</v>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2852,6 +3138,11 @@
       <c r="J59" t="b">
         <v>0</v>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2894,6 +3185,11 @@
       <c r="J60" t="b">
         <v>0</v>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2936,6 +3232,11 @@
       <c r="J61" t="b">
         <v>0</v>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2978,6 +3279,7 @@
       <c r="J62" t="b">
         <v>0</v>
       </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3020,6 +3322,11 @@
       <c r="J63" t="b">
         <v>0</v>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3061,6 +3368,11 @@
       </c>
       <c r="J64" t="b">
         <v>0</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -3096,6 +3408,11 @@
       <c r="J65" t="b">
         <v>1</v>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3138,6 +3455,11 @@
       <c r="J66" t="b">
         <v>1</v>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3180,6 +3502,11 @@
       <c r="J67" t="b">
         <v>1</v>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3222,6 +3549,11 @@
       <c r="J68" t="b">
         <v>1</v>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3264,6 +3596,11 @@
       <c r="J69" t="b">
         <v>1</v>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3302,6 +3639,11 @@
       <c r="J70" t="b">
         <v>0</v>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3344,6 +3686,11 @@
       <c r="J71" t="b">
         <v>0</v>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3385,6 +3732,11 @@
       </c>
       <c r="J72" t="b">
         <v>0</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>GENETIC</t>
+        </is>
       </c>
     </row>
     <row r="73">
@@ -3420,6 +3772,11 @@
       <c r="J73" t="b">
         <v>1</v>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3462,6 +3819,11 @@
       <c r="J74" t="b">
         <v>0</v>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3503,6 +3865,11 @@
       </c>
       <c r="J75" t="b">
         <v>1</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
       </c>
     </row>
     <row r="76">
@@ -3538,6 +3905,11 @@
       <c r="J76" t="b">
         <v>1</v>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3580,6 +3952,11 @@
       <c r="J77" t="b">
         <v>0</v>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3622,6 +3999,11 @@
       <c r="J78" t="b">
         <v>0</v>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3664,6 +4046,11 @@
       <c r="J79" t="b">
         <v>0</v>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3706,6 +4093,11 @@
       <c r="J80" t="b">
         <v>0</v>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3748,6 +4140,11 @@
       <c r="J81" t="b">
         <v>0</v>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3790,6 +4187,11 @@
       <c r="J82" t="b">
         <v>1</v>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3832,6 +4234,11 @@
       <c r="J83" t="b">
         <v>0</v>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3874,6 +4281,11 @@
       <c r="J84" t="b">
         <v>0</v>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3916,6 +4328,11 @@
       <c r="J85" t="b">
         <v>0</v>
       </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3958,6 +4375,11 @@
       <c r="J86" t="b">
         <v>1</v>
       </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -4000,6 +4422,11 @@
       <c r="J87" t="b">
         <v>1</v>
       </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -4042,6 +4469,11 @@
       <c r="J88" t="b">
         <v>0</v>
       </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4084,6 +4516,11 @@
       <c r="J89" t="b">
         <v>0</v>
       </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -4126,6 +4563,11 @@
       <c r="J90" t="b">
         <v>0</v>
       </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4170,6 +4612,7 @@
       <c r="J91" t="b">
         <v>0</v>
       </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -4212,6 +4655,11 @@
       <c r="J92" t="b">
         <v>0</v>
       </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -4254,6 +4702,11 @@
       <c r="J93" t="b">
         <v>0</v>
       </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4296,6 +4749,7 @@
       <c r="J94" t="b">
         <v>0</v>
       </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -4338,6 +4792,11 @@
       <c r="J95" t="b">
         <v>0</v>
       </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -4380,6 +4839,11 @@
       <c r="J96" t="b">
         <v>0</v>
       </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>RADIATION</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -4422,6 +4886,11 @@
       <c r="J97" t="b">
         <v>0</v>
       </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4464,6 +4933,11 @@
       <c r="J98" t="b">
         <v>0</v>
       </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4506,6 +4980,11 @@
       <c r="J99" t="b">
         <v>0</v>
       </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>BEHAVIORAL</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4548,6 +5027,11 @@
       <c r="J100" t="b">
         <v>0</v>
       </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4590,6 +5074,11 @@
       <c r="J101" t="b">
         <v>0</v>
       </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -4632,6 +5121,11 @@
       <c r="J102" t="b">
         <v>1</v>
       </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -4676,6 +5170,7 @@
       <c r="J103" t="b">
         <v>0</v>
       </c>
+      <c r="K103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -4710,6 +5205,11 @@
       <c r="J104" t="b">
         <v>0</v>
       </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>DIETARY_SUPPLEMENT</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4748,6 +5248,11 @@
       <c r="J105" t="b">
         <v>0</v>
       </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -4787,6 +5292,7 @@
       <c r="J106" t="b">
         <v>0</v>
       </c>
+      <c r="K106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4825,6 +5331,7 @@
       <c r="J107" t="b">
         <v>0</v>
       </c>
+      <c r="K107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4865,6 +5372,7 @@
       <c r="J108" t="b">
         <v>0</v>
       </c>
+      <c r="K108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -4905,6 +5413,7 @@
       <c r="J109" t="b">
         <v>0</v>
       </c>
+      <c r="K109" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
